--- a/spider/demo/test/education_crawler/data/cingta.xlsx
+++ b/spider/demo/test/education_crawler/data/cingta.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="446">
   <si>
     <t>高等教育相关国家部委网站</t>
     <rPh sb="0" eb="1">
@@ -1911,6 +1911,10 @@
   </si>
   <si>
     <t>新疆维吾尔自治区科技厅</t>
+  </si>
+  <si>
+    <t>http://www.gxst.gov.cn/gxkjt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2110,7 +2114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2215,20 +2219,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2534,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A38" sqref="A3:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1"/>
@@ -4759,8 +4766,8 @@
       <c r="B202" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C202" s="13" t="s">
-        <v>366</v>
+      <c r="C202" s="41" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="36" customHeight="1">
@@ -5046,40 +5053,40 @@
     <hyperlink ref="C175" r:id="rId173"/>
     <hyperlink ref="C176" r:id="rId174"/>
     <hyperlink ref="C177" r:id="rId175"/>
-    <hyperlink ref="C202" r:id="rId176"/>
-    <hyperlink ref="C203" r:id="rId177"/>
-    <hyperlink ref="C178" r:id="rId178"/>
-    <hyperlink ref="C179" r:id="rId179"/>
-    <hyperlink ref="C180" r:id="rId180"/>
-    <hyperlink ref="C181" r:id="rId181"/>
-    <hyperlink ref="C182" r:id="rId182"/>
-    <hyperlink ref="C183" r:id="rId183"/>
-    <hyperlink ref="C184" r:id="rId184"/>
-    <hyperlink ref="C185" r:id="rId185"/>
-    <hyperlink ref="C186" r:id="rId186"/>
-    <hyperlink ref="C187" r:id="rId187"/>
-    <hyperlink ref="C188" r:id="rId188"/>
-    <hyperlink ref="C189" r:id="rId189"/>
-    <hyperlink ref="C204" r:id="rId190"/>
-    <hyperlink ref="C205" r:id="rId191"/>
-    <hyperlink ref="C190" r:id="rId192"/>
-    <hyperlink ref="C191" r:id="rId193"/>
-    <hyperlink ref="C192" r:id="rId194"/>
-    <hyperlink ref="C193" r:id="rId195"/>
-    <hyperlink ref="C194" r:id="rId196"/>
-    <hyperlink ref="C195" r:id="rId197"/>
-    <hyperlink ref="C196" r:id="rId198"/>
-    <hyperlink ref="C197" r:id="rId199"/>
-    <hyperlink ref="C198" r:id="rId200"/>
-    <hyperlink ref="C206" r:id="rId201"/>
-    <hyperlink ref="C207" r:id="rId202"/>
-    <hyperlink ref="C208" r:id="rId203"/>
-    <hyperlink ref="C209" r:id="rId204"/>
-    <hyperlink ref="C210" r:id="rId205"/>
-    <hyperlink ref="C211" r:id="rId206"/>
-    <hyperlink ref="C119" r:id="rId207"/>
-    <hyperlink ref="C120" r:id="rId208"/>
-    <hyperlink ref="C121" r:id="rId209"/>
+    <hyperlink ref="C203" r:id="rId176"/>
+    <hyperlink ref="C178" r:id="rId177"/>
+    <hyperlink ref="C179" r:id="rId178"/>
+    <hyperlink ref="C180" r:id="rId179"/>
+    <hyperlink ref="C181" r:id="rId180"/>
+    <hyperlink ref="C182" r:id="rId181"/>
+    <hyperlink ref="C183" r:id="rId182"/>
+    <hyperlink ref="C184" r:id="rId183"/>
+    <hyperlink ref="C185" r:id="rId184"/>
+    <hyperlink ref="C186" r:id="rId185"/>
+    <hyperlink ref="C187" r:id="rId186"/>
+    <hyperlink ref="C188" r:id="rId187"/>
+    <hyperlink ref="C189" r:id="rId188"/>
+    <hyperlink ref="C204" r:id="rId189"/>
+    <hyperlink ref="C205" r:id="rId190"/>
+    <hyperlink ref="C190" r:id="rId191"/>
+    <hyperlink ref="C191" r:id="rId192"/>
+    <hyperlink ref="C192" r:id="rId193"/>
+    <hyperlink ref="C193" r:id="rId194"/>
+    <hyperlink ref="C194" r:id="rId195"/>
+    <hyperlink ref="C195" r:id="rId196"/>
+    <hyperlink ref="C196" r:id="rId197"/>
+    <hyperlink ref="C197" r:id="rId198"/>
+    <hyperlink ref="C198" r:id="rId199"/>
+    <hyperlink ref="C206" r:id="rId200"/>
+    <hyperlink ref="C207" r:id="rId201"/>
+    <hyperlink ref="C208" r:id="rId202"/>
+    <hyperlink ref="C209" r:id="rId203"/>
+    <hyperlink ref="C210" r:id="rId204"/>
+    <hyperlink ref="C211" r:id="rId205"/>
+    <hyperlink ref="C119" r:id="rId206"/>
+    <hyperlink ref="C120" r:id="rId207"/>
+    <hyperlink ref="C121" r:id="rId208"/>
+    <hyperlink ref="C202" r:id="rId209"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId210"/>
@@ -6235,12 +6242,23 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A105:A107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A102:A104"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:A80"/>
+    <mergeCell ref="A81:A84"/>
+    <mergeCell ref="A85:A87"/>
+    <mergeCell ref="A88:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A101"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A30"/>
@@ -6253,23 +6271,12 @@
     <mergeCell ref="A51:A55"/>
     <mergeCell ref="A56:A58"/>
     <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A102:A104"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A80"/>
-    <mergeCell ref="A81:A84"/>
-    <mergeCell ref="A85:A87"/>
-    <mergeCell ref="A88:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A99:A101"/>
-    <mergeCell ref="A105:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A113 A110 A102 A99 A94 A92 A81 A1:A26 A63 A65 A68:A69 A73 A76 A85 A88:A90 A97 A59 A105 A108 A116 A119:A1048576 A29 A35 A38 A42 A45 A48 A51:A56">
@@ -6413,11 +6420,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6661,7 +6668,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="37" t="s">
         <v>270</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -6672,7 +6679,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="37"/>
+      <c r="A28" s="38"/>
       <c r="B28" s="12" t="s">
         <v>232</v>
       </c>
@@ -6681,7 +6688,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="37"/>
+      <c r="A29" s="38"/>
       <c r="B29" s="12" t="s">
         <v>273</v>
       </c>
@@ -6690,7 +6697,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="37"/>
+      <c r="A30" s="38"/>
       <c r="B30" s="12" t="s">
         <v>275</v>
       </c>
@@ -6699,7 +6706,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="37"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="12" t="s">
         <v>277</v>
       </c>
@@ -6708,7 +6715,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="12" t="s">
         <v>279</v>
       </c>
@@ -7094,7 +7101,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="36" customHeight="1">
-      <c r="A72" s="36" t="s">
+      <c r="A72" s="37" t="s">
         <v>342</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -7105,7 +7112,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="36" customHeight="1">
-      <c r="A73" s="37"/>
+      <c r="A73" s="38"/>
       <c r="B73" s="12" t="s">
         <v>344</v>
       </c>
@@ -7114,7 +7121,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="36" customHeight="1">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="37" t="s">
         <v>346</v>
       </c>
       <c r="B74" s="12" t="s">
@@ -7125,7 +7132,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="36" customHeight="1">
-      <c r="A75" s="37"/>
+      <c r="A75" s="38"/>
       <c r="B75" s="12" t="s">
         <v>348</v>
       </c>
@@ -7134,7 +7141,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="36" customHeight="1">
-      <c r="A76" s="37"/>
+      <c r="A76" s="38"/>
       <c r="B76" s="12" t="s">
         <v>349</v>
       </c>
@@ -7143,7 +7150,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="36" customHeight="1">
-      <c r="A77" s="36" t="s">
+      <c r="A77" s="37" t="s">
         <v>351</v>
       </c>
       <c r="B77" s="12" t="s">
@@ -7154,7 +7161,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="36" customHeight="1">
-      <c r="A78" s="37"/>
+      <c r="A78" s="38"/>
       <c r="B78" s="12" t="s">
         <v>353</v>
       </c>
@@ -7163,7 +7170,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="36" customHeight="1">
-      <c r="A79" s="37"/>
+      <c r="A79" s="38"/>
       <c r="B79" s="12" t="s">
         <v>21</v>
       </c>
@@ -7172,7 +7179,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="36" customHeight="1">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="37" t="s">
         <v>356</v>
       </c>
       <c r="B80" s="12" t="s">
@@ -7183,7 +7190,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="36" customHeight="1">
-      <c r="A81" s="37"/>
+      <c r="A81" s="38"/>
       <c r="B81" s="12" t="s">
         <v>21</v>
       </c>
@@ -7192,7 +7199,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" customHeight="1">
-      <c r="A82" s="37"/>
+      <c r="A82" s="38"/>
       <c r="B82" s="12" t="s">
         <v>35</v>
       </c>
@@ -7201,7 +7208,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" customHeight="1">
-      <c r="A83" s="38" t="s">
+      <c r="A83" s="40" t="s">
         <v>360</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -7212,7 +7219,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" customHeight="1">
-      <c r="A84" s="38"/>
+      <c r="A84" s="40"/>
       <c r="B84" s="12" t="s">
         <v>362</v>
       </c>
@@ -7221,7 +7228,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" customHeight="1">
-      <c r="A85" s="38"/>
+      <c r="A85" s="40"/>
       <c r="B85" s="12" t="s">
         <v>21</v>
       </c>
@@ -7329,6 +7336,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A92"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A73"/>
     <mergeCell ref="A38:A41"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A5"/>
@@ -7341,25 +7367,6 @@
     <mergeCell ref="A27:A32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/spider/demo/test/education_crawler/data/cingta.xlsx
+++ b/spider/demo/test/education_crawler/data/cingta.xlsx
@@ -16,7 +16,7 @@
     <sheet name="教育厅" sheetId="2" r:id="rId2"/>
     <sheet name="科技厅" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="523">
   <si>
     <t>高等教育相关国家部委网站</t>
     <rPh sb="0" eb="1">
@@ -1914,6 +1914,548 @@
   </si>
   <si>
     <t>http://www.gxst.gov.cn/gxkjt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://kxjst.jiangsu.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://std.jiangsu.gov.cn/col/col48967/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jyt.jiangsu.gov.cn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://jyt.jiangsu.gov.cn/col/col58320/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育部</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yu bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育部主页</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yu bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院要闻</t>
+    <rPh sb="0" eb="1">
+      <t>guo wu y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yao wen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gov.cn/xinwen/yaowen.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国务院最新文件</t>
+    <rPh sb="0" eb="1">
+      <t>guo w y</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zui x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.gov.cn/zhengce/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育要闻</t>
+    <rPh sb="0" eb="1">
+      <t>jiao yu bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yao wne</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/jyb_sy/sy_jyyw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新文件</t>
+    <rPh sb="0" eb="1">
+      <t>zui x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>we jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/jyb_xxgk/zywj_btlj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知</t>
+    <rPh sb="0" eb="1">
+      <t>tong zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/jyb_xxgk/s5743/s5972/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告</t>
+    <rPh sb="0" eb="1">
+      <t>gong g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/jyb_xxgk/s5743/s5744/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公示</t>
+    <rPh sb="0" eb="1">
+      <t>gong shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/jyb_xxgk/s5743/s5745/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部机关干部任免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等教育司—公示公告</t>
+    <rPh sb="0" eb="1">
+      <t>gao d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jiao yu si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>gong shi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>gong g</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等教育司—政策文件</t>
+    <rPh sb="6" eb="7">
+      <t>zheng ce</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wen jian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A08/A08_zcwj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技司—通知公告</t>
+    <rPh sb="0" eb="1">
+      <t>ke ji si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A16/s8213/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技司—政策文件</t>
+    <rPh sb="0" eb="1">
+      <t>ke ji s</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A16/A16_zcwj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技发展中心—工作动态</t>
+    <rPh sb="0" eb="1">
+      <t>ke ji</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa z</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cutech.edu.cn/cn/zxgz/A0136index_1.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会科学司—通知公告</t>
+    <rPh sb="0" eb="1">
+      <t>she h</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke xue si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A13/A13_gggs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会科学司—政策文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A13/A13_zcwj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想政治司—工作动态</t>
+    <rPh sb="0" eb="1">
+      <t>si x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng zhi si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A12/moe_1168/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想政治司—公告公示</t>
+    <rPh sb="0" eb="1">
+      <t>si x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng zhi si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A12/A12_gggs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思想政治司—政策文件</t>
+    <rPh sb="0" eb="1">
+      <t>si x</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zheng zhi si</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A12/A12_zcwj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位管理与研究生教育司—工作动态</t>
+    <rPh sb="0" eb="1">
+      <t>xue wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan jiu s</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao yu si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A22/moe_847/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位管理与研究生教育司—公告公示</t>
+    <rPh sb="0" eb="1">
+      <t>xue wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan jiu s</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao yu si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A22/A22_gggs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位管理与研究生教育司—政策文件</t>
+    <rPh sb="0" eb="1">
+      <t>xue wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yan jiu s</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jiao yu si</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A22/A22_zcwj/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技部</t>
+    <rPh sb="0" eb="1">
+      <t>ke ji bu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.most.gov.cn/tztg/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息公开</t>
+    <rPh sb="0" eb="1">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong k</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.most.gov.cn/mostinfo/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家科技管理信息服务平台</t>
+    <rPh sb="0" eb="1">
+      <t>guo j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan l</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>fu wu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ping t</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家自然科学基金委员会</t>
+    <rPh sb="0" eb="1">
+      <t>guo j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zi r</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ke x</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ji jin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>wei yuan h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nsfc.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.nsfc.gov.cn/publish/portal0/tab38/module491/more.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学基金共享服务网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://npd.nsfc.gov.cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家发改委</t>
+    <rPh sb="0" eb="1">
+      <t>guo j</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fa gai wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gjss.ndrc.gov.cn/ghzc/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高技术工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://gjss.ndrc.gov.cn/gjsgz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科学院</t>
+    <rPh sb="0" eb="1">
+      <t>zhong g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke xue y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科研进展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院士增选</t>
+    <rPh sb="0" eb="1">
+      <t>yuan shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zeng xuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://casad.cas.cn/chnl/425/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国科协</t>
+    <rPh sb="0" eb="1">
+      <t>zhong g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ke xie</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cast.org.cn/n17040442/n17041423/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工程院</t>
+    <rPh sb="0" eb="1">
+      <t>zhong g</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong c y</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017年院士增选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cae.cn/cae/html/main/col695/column_695_1.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/jyb_xxgk/s242/s3496/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.moe.gov.cn/s78/A08/A08_gggs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.most.gov.cn/index.htm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://service.most.gov.cn/2015tztg_all/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cas.cn/tz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cas.cn/syky/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2114,7 +2656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2192,6 +2734,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2234,7 +2783,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2539,10 +3094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202:XFD202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="36" customHeight="1"/>
@@ -2553,11 +3108,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="12" t="s">
@@ -2571,2301 +3126,2697 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>451</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="36" customHeight="1">
+      <c r="A4" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="36" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="36" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>457</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="36" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="36" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="36" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="36" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>465</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="36" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>467</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>468</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="36" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="36" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="36" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="36" customHeight="1">
+      <c r="A16" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="36" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="36" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="36" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="36" customHeight="1">
+      <c r="A23" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="36" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36" customHeight="1">
+      <c r="A25" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" customHeight="1">
+      <c r="A26" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="36" customHeight="1">
+      <c r="A27" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" customHeight="1">
+      <c r="A28" s="46" t="s">
+        <v>493</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>497</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="36" customHeight="1">
+      <c r="A29" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="36" customHeight="1">
+      <c r="A30" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="36" customHeight="1">
+      <c r="A31" s="46" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="36" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="36" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="36" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B34" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="36" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B35" s="44" t="s">
+        <v>509</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="36" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="36" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="36" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="36" customHeight="1">
+      <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="36" customHeight="1">
-      <c r="A4" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="36" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="36" customHeight="1">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="36" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="36" customHeight="1">
-      <c r="A11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="36" customHeight="1">
-      <c r="A13" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="36" customHeight="1">
-      <c r="A14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="36" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="18" t="s">
-        <v>389</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
       <c r="A40" s="18" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
       <c r="A41" s="19" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>87</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
       <c r="A43" s="18" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="19" t="s">
-        <v>391</v>
+      <c r="A44" s="18" t="s">
+        <v>382</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="17" t="s">
-        <v>92</v>
+      <c r="A45" s="18" t="s">
+        <v>382</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="18" t="s">
-        <v>392</v>
+      <c r="A46" s="19" t="s">
+        <v>382</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="19" t="s">
-        <v>392</v>
+      <c r="A47" s="17" t="s">
+        <v>27</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="17" t="s">
-        <v>98</v>
+      <c r="A48" s="18" t="s">
+        <v>383</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="18" t="s">
-        <v>393</v>
+      <c r="A49" s="19" t="s">
+        <v>383</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="19" t="s">
-        <v>393</v>
+      <c r="A50" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="17" t="s">
-        <v>103</v>
+      <c r="A51" s="18" t="s">
+        <v>384</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
       <c r="A52" s="18" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="18" t="s">
-        <v>394</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>107</v>
+      <c r="A53" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="18" t="s">
-        <v>394</v>
+      <c r="A54" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="19" t="s">
-        <v>394</v>
+      <c r="A55" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="17" t="s">
-        <v>113</v>
+      <c r="A56" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
       <c r="A57" s="18" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
       <c r="A58" s="18" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="17" t="s">
-        <v>119</v>
+      <c r="A59" s="18" t="s">
+        <v>385</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
       <c r="A60" s="18" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="18" t="s">
-        <v>396</v>
+      <c r="A61" s="19" t="s">
+        <v>385</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="18" t="s">
-        <v>396</v>
+      <c r="A62" s="20" t="s">
+        <v>56</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="17" t="s">
-        <v>126</v>
+      <c r="A63" s="18" t="s">
+        <v>386</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="18" t="s">
-        <v>397</v>
+      <c r="A64" s="19" t="s">
+        <v>386</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" customHeight="1">
-      <c r="A65" s="17" t="s">
-        <v>129</v>
+      <c r="A65" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>130</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" customHeight="1">
-      <c r="A66" s="18" t="s">
-        <v>398</v>
+      <c r="A66" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" customHeight="1">
-      <c r="A67" s="18" t="s">
-        <v>398</v>
+      <c r="A67" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>133</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="36" customHeight="1">
-      <c r="A68" s="16" t="s">
-        <v>134</v>
+      <c r="A68" s="21" t="s">
+        <v>388</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="36" customHeight="1">
+      <c r="A69" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="36" customHeight="1">
+      <c r="A70" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="36" customHeight="1">
+      <c r="A71" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="36" customHeight="1">
-      <c r="A69" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="4" t="s">
+      <c r="C71" s="28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="36" customHeight="1">
+      <c r="A72" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="36" customHeight="1">
+      <c r="A73" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="36" customHeight="1">
+      <c r="A74" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="36" customHeight="1">
-      <c r="A70" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="36" customHeight="1">
-      <c r="A71" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="36" customHeight="1">
-      <c r="A72" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="36" customHeight="1">
-      <c r="A73" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="36" customHeight="1">
-      <c r="A74" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="C74" s="8" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="36" customHeight="1">
       <c r="A75" s="18" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="36" customHeight="1">
+      <c r="A76" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="36" customHeight="1">
+      <c r="A77" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="36" customHeight="1">
-      <c r="A76" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="C77" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="36" customHeight="1">
+      <c r="A78" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="36" customHeight="1">
-      <c r="A77" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="36" customHeight="1">
-      <c r="A78" s="18" t="s">
-        <v>401</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C78" s="8" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="36" customHeight="1">
       <c r="A79" s="18" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="36" customHeight="1">
-      <c r="A80" s="18" t="s">
-        <v>401</v>
+      <c r="A80" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="36" customHeight="1">
       <c r="A81" s="17" t="s">
-        <v>157</v>
+        <v>92</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>158</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" customHeight="1">
       <c r="A82" s="18" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>159</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" customHeight="1">
-      <c r="A83" s="18" t="s">
-        <v>402</v>
+      <c r="A83" s="19" t="s">
+        <v>392</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" customHeight="1">
-      <c r="A84" s="19" t="s">
-        <v>402</v>
+      <c r="A84" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" customHeight="1">
-      <c r="A85" s="17" t="s">
-        <v>164</v>
+      <c r="A85" s="18" t="s">
+        <v>393</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="36" customHeight="1">
+      <c r="A86" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="36" customHeight="1">
+      <c r="A87" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C85" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="36" customHeight="1">
-      <c r="A87" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C87" s="8" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="36" customHeight="1">
-      <c r="A88" s="17" t="s">
-        <v>169</v>
+      <c r="A88" s="18" t="s">
+        <v>394</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>170</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" customHeight="1">
       <c r="A89" s="18" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="36" customHeight="1">
       <c r="A90" s="18" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="36" customHeight="1">
-      <c r="A91" s="18" t="s">
-        <v>404</v>
+      <c r="A91" s="19" t="s">
+        <v>394</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="36" customHeight="1">
       <c r="A92" s="17" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="36" customHeight="1">
       <c r="A93" s="18" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="36" customHeight="1">
-      <c r="A94" s="17" t="s">
-        <v>179</v>
+      <c r="A94" s="18" t="s">
+        <v>395</v>
       </c>
       <c r="B94" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="36" customHeight="1">
+      <c r="A95" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="36" customHeight="1">
-      <c r="A95" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>181</v>
-      </c>
       <c r="C95" s="8" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="36" customHeight="1">
-      <c r="A96" s="19" t="s">
-        <v>406</v>
+      <c r="A96" s="18" t="s">
+        <v>396</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>184</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="36" customHeight="1">
-      <c r="A97" s="17" t="s">
-        <v>185</v>
+      <c r="A97" s="18" t="s">
+        <v>396</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="36" customHeight="1">
       <c r="A98" s="18" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="36" customHeight="1">
       <c r="A99" s="17" t="s">
-        <v>189</v>
+        <v>126</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>190</v>
+        <v>127</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="36" customHeight="1">
       <c r="A100" s="18" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>192</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="36" customHeight="1">
-      <c r="A101" s="18" t="s">
-        <v>408</v>
+      <c r="A101" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="36" customHeight="1">
-      <c r="A102" s="17" t="s">
-        <v>194</v>
+      <c r="A102" s="18" t="s">
+        <v>398</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="36" customHeight="1">
       <c r="A103" s="18" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="36" customHeight="1">
-      <c r="A104" s="19" t="s">
-        <v>409</v>
+      <c r="A104" s="16" t="s">
+        <v>134</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="36" customHeight="1">
       <c r="A105" s="17" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="36" customHeight="1">
       <c r="A106" s="18" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="36" customHeight="1">
-      <c r="A107" s="19" t="s">
-        <v>410</v>
+      <c r="A107" s="18" t="s">
+        <v>399</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="36" customHeight="1">
-      <c r="A108" s="17" t="s">
-        <v>205</v>
+      <c r="A108" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="B108" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="36" customHeight="1">
+      <c r="A109" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="36" customHeight="1">
-      <c r="A109" s="18" t="s">
-        <v>411</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="36" customHeight="1">
-      <c r="A110" s="17" t="s">
-        <v>208</v>
+      <c r="A110" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>209</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="36" customHeight="1">
       <c r="A111" s="18" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>210</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="36" customHeight="1">
-      <c r="A112" s="18" t="s">
-        <v>412</v>
+      <c r="A112" s="17" t="s">
+        <v>148</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>212</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="36" customHeight="1">
-      <c r="A113" s="17" t="s">
-        <v>213</v>
+      <c r="A113" s="18" t="s">
+        <v>401</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="36" customHeight="1">
       <c r="A114" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="36" customHeight="1">
+      <c r="A115" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="36" customHeight="1">
+      <c r="A116" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="36" customHeight="1">
+      <c r="A117" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="36" customHeight="1">
+      <c r="A118" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="36" customHeight="1">
+      <c r="A119" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="36" customHeight="1">
+      <c r="A120" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="36" customHeight="1">
+      <c r="A121" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="36" customHeight="1">
+      <c r="A122" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="36" customHeight="1">
+      <c r="A123" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="36" customHeight="1">
+      <c r="A124" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="36" customHeight="1">
+      <c r="A125" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="36" customHeight="1">
+      <c r="A126" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="36" customHeight="1">
+      <c r="A127" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="36" customHeight="1">
+      <c r="A128" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="36" customHeight="1">
+      <c r="A129" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="36" customHeight="1">
+      <c r="A130" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="36" customHeight="1">
+      <c r="A131" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="36" customHeight="1">
+      <c r="A132" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="36" customHeight="1">
+      <c r="A133" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="36" customHeight="1">
+      <c r="A134" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="36" customHeight="1">
+      <c r="A135" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="36" customHeight="1">
+      <c r="A136" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="36" customHeight="1">
+      <c r="A137" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="36" customHeight="1">
+      <c r="A138" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="36" customHeight="1">
+      <c r="A139" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="36" customHeight="1">
+      <c r="A140" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="36" customHeight="1">
+      <c r="A141" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="36" customHeight="1">
+      <c r="A142" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="36" customHeight="1">
+      <c r="A143" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="36" customHeight="1">
+      <c r="A144" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="36" customHeight="1">
+      <c r="A145" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="36" customHeight="1">
+      <c r="A146" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="36" customHeight="1">
+      <c r="A147" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="36" customHeight="1">
+      <c r="A148" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="36" customHeight="1">
+      <c r="A149" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="36" customHeight="1">
+      <c r="A150" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B150" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C150" s="8" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="36" customHeight="1">
-      <c r="A115" s="19" t="s">
+    <row r="151" spans="1:3" ht="36" customHeight="1">
+      <c r="A151" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B151" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C151" s="8" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="36" customHeight="1">
-      <c r="A116" s="17" t="s">
+    <row r="152" spans="1:3" ht="36" customHeight="1">
+      <c r="A152" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B152" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C152" s="8" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="36" customHeight="1">
-      <c r="A117" s="18" t="s">
+    <row r="153" spans="1:3" ht="36" customHeight="1">
+      <c r="A153" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B153" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C153" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="36" customHeight="1">
-      <c r="A118" s="19" t="s">
+    <row r="154" spans="1:3" ht="36" customHeight="1">
+      <c r="A154" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B154" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C154" s="8" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="36" customHeight="1">
-      <c r="A119" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="B119" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="36" customHeight="1">
-      <c r="A120" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="36" customHeight="1">
-      <c r="A121" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="B121" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="36" customHeight="1">
-      <c r="A122" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B122" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="36" customHeight="1">
-      <c r="A123" s="22" t="s">
-        <v>416</v>
-      </c>
-      <c r="B123" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="36" customHeight="1">
-      <c r="A124" s="22" t="s">
-        <v>234</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="36" customHeight="1">
-      <c r="A125" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="B125" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="36" customHeight="1">
-      <c r="A126" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="36" customHeight="1">
-      <c r="A127" s="22" t="s">
-        <v>417</v>
-      </c>
-      <c r="B127" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="36" customHeight="1">
-      <c r="A128" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="B128" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="36" customHeight="1">
-      <c r="A129" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C129" s="13" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="36" customHeight="1">
-      <c r="A130" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="36" customHeight="1">
-      <c r="A131" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="36" customHeight="1">
-      <c r="A132" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="36" customHeight="1">
-      <c r="A133" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="36" customHeight="1">
-      <c r="A134" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="36" customHeight="1">
-      <c r="A135" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="36" customHeight="1">
-      <c r="A136" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="36" customHeight="1">
-      <c r="A137" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="36" customHeight="1">
-      <c r="A138" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="36" customHeight="1">
-      <c r="A139" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B139" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="36" customHeight="1">
-      <c r="A140" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B140" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="36" customHeight="1">
-      <c r="A141" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B141" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="36" customHeight="1">
-      <c r="A142" s="22" t="s">
-        <v>421</v>
-      </c>
-      <c r="B142" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="36" customHeight="1">
-      <c r="A143" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="B143" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="36" customHeight="1">
-      <c r="A144" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B144" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="36" customHeight="1">
-      <c r="A145" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="36" customHeight="1">
-      <c r="A146" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="36" customHeight="1">
-      <c r="A147" s="24" t="s">
-        <v>422</v>
-      </c>
-      <c r="B147" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C147" s="13" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="36" customHeight="1">
-      <c r="A148" s="25" t="s">
-        <v>422</v>
-      </c>
-      <c r="B148" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="36" customHeight="1">
-      <c r="A149" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B149" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="36" customHeight="1">
-      <c r="A150" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B150" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="36" customHeight="1">
-      <c r="A151" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="B151" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="36" customHeight="1">
-      <c r="A152" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B152" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="36" customHeight="1">
-      <c r="A153" s="22" t="s">
-        <v>424</v>
-      </c>
-      <c r="B153" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C153" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="36" customHeight="1">
-      <c r="A154" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B154" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="36" customHeight="1">
       <c r="A155" s="22" t="s">
-        <v>425</v>
+        <v>225</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>291</v>
+        <v>226</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="36" customHeight="1">
       <c r="A156" s="22" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>21</v>
+        <v>227</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>292</v>
+        <v>228</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="36" customHeight="1">
       <c r="A157" s="22" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>293</v>
+        <v>21</v>
       </c>
       <c r="C157" s="13" t="s">
-        <v>294</v>
+        <v>229</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="36" customHeight="1">
       <c r="A158" s="22" t="s">
-        <v>295</v>
+        <v>230</v>
       </c>
       <c r="B158" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C158" s="13" t="s">
-        <v>296</v>
+        <v>231</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="36" customHeight="1">
       <c r="A159" s="22" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>297</v>
+        <v>233</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="36" customHeight="1">
       <c r="A160" s="22" t="s">
-        <v>298</v>
+        <v>234</v>
       </c>
       <c r="B160" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C160" s="13" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="36" customHeight="1">
       <c r="A161" s="22" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>35</v>
+        <v>236</v>
       </c>
       <c r="C161" s="13" t="s">
-        <v>300</v>
+        <v>237</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="36" customHeight="1">
       <c r="A162" s="22" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>302</v>
+        <v>239</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="36" customHeight="1">
       <c r="A163" s="22" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="C163" s="13" t="s">
-        <v>304</v>
+        <v>241</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="36" customHeight="1">
       <c r="A164" s="22" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="36" customHeight="1">
       <c r="A165" s="22" t="s">
-        <v>306</v>
+        <v>418</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>307</v>
+        <v>244</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="36" customHeight="1">
       <c r="A166" s="22" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>308</v>
+        <v>246</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="36" customHeight="1">
       <c r="A167" s="22" t="s">
-        <v>429</v>
+        <v>247</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C167" s="13" t="s">
-        <v>309</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="36" customHeight="1">
       <c r="A168" s="22" t="s">
-        <v>310</v>
+        <v>419</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="C168" s="13" t="s">
-        <v>311</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="36" customHeight="1">
       <c r="A169" s="22" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
       <c r="C169" s="13" t="s">
-        <v>313</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="36" customHeight="1">
       <c r="A170" s="22" t="s">
-        <v>430</v>
+        <v>253</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>314</v>
+        <v>254</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="36" customHeight="1">
       <c r="A171" s="22" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="C171" s="13" t="s">
-        <v>316</v>
+        <v>256</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="36" customHeight="1">
       <c r="A172" s="22" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="36" customHeight="1">
       <c r="A173" s="22" t="s">
-        <v>431</v>
+        <v>258</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>318</v>
+        <v>11</v>
       </c>
       <c r="C173" s="13" t="s">
-        <v>319</v>
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="36" customHeight="1">
       <c r="A174" s="22" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="C174" s="13" t="s">
-        <v>321</v>
+        <v>261</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="36" customHeight="1">
       <c r="A175" s="22" t="s">
-        <v>322</v>
+        <v>421</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="36" customHeight="1">
       <c r="A176" s="22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="C176" s="13" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="36" customHeight="1">
       <c r="A177" s="22" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>325</v>
+        <v>266</v>
       </c>
       <c r="C177" s="13" t="s">
-        <v>326</v>
+        <v>267</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="36" customHeight="1">
       <c r="A178" s="22" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="B178" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="36" customHeight="1">
+      <c r="A179" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="B179" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C178" s="13" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="36" customHeight="1">
-      <c r="A179" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="C179" s="13" t="s">
-        <v>329</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="36" customHeight="1">
-      <c r="A180" s="22" t="s">
-        <v>433</v>
+      <c r="A180" s="24" t="s">
+        <v>422</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>330</v>
+        <v>272</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="36" customHeight="1">
-      <c r="A181" s="22" t="s">
-        <v>331</v>
+      <c r="A181" s="24" t="s">
+        <v>422</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>11</v>
+        <v>273</v>
       </c>
       <c r="C181" s="13" t="s">
-        <v>332</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="36" customHeight="1">
-      <c r="A182" s="22" t="s">
-        <v>434</v>
+      <c r="A182" s="24" t="s">
+        <v>422</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>333</v>
+        <v>275</v>
       </c>
       <c r="C182" s="13" t="s">
-        <v>334</v>
+        <v>276</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="36" customHeight="1">
-      <c r="A183" s="22" t="s">
-        <v>434</v>
+      <c r="A183" s="24" t="s">
+        <v>422</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>31</v>
+        <v>277</v>
       </c>
       <c r="C183" s="13" t="s">
-        <v>335</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="36" customHeight="1">
-      <c r="A184" s="22" t="s">
-        <v>434</v>
+      <c r="A184" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C184" s="13" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="36" customHeight="1">
       <c r="A185" s="22" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="B185" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C185" s="13" t="s">
-        <v>338</v>
+      <c r="C185" s="28" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="36" customHeight="1">
       <c r="A186" s="22" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B186" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C186" s="13" t="s">
-        <v>339</v>
+      <c r="C186" s="28" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="36" customHeight="1">
       <c r="A187" s="22" t="s">
-        <v>435</v>
+        <v>284</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>341</v>
+        <v>285</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="36" customHeight="1">
-      <c r="A188" s="23" t="s">
-        <v>342</v>
+      <c r="A188" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="36" customHeight="1">
-      <c r="A189" s="24" t="s">
-        <v>436</v>
+      <c r="A189" s="22" t="s">
+        <v>424</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="36" customHeight="1">
-      <c r="A190" s="23" t="s">
-        <v>346</v>
+      <c r="A190" s="22" t="s">
+        <v>289</v>
       </c>
       <c r="B190" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="36" customHeight="1">
-      <c r="A191" s="24" t="s">
-        <v>437</v>
+      <c r="A191" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>348</v>
+        <v>35</v>
       </c>
       <c r="C191" s="13" t="s">
-        <v>347</v>
+        <v>291</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="36" customHeight="1">
-      <c r="A192" s="24" t="s">
-        <v>437</v>
+      <c r="A192" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>349</v>
+        <v>21</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="36" customHeight="1">
-      <c r="A193" s="23" t="s">
-        <v>351</v>
+      <c r="A193" s="22" t="s">
+        <v>425</v>
       </c>
       <c r="B193" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="36" customHeight="1">
+      <c r="A194" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B194" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C193" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="36" customHeight="1">
-      <c r="A194" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="B194" s="12" t="s">
-        <v>353</v>
-      </c>
       <c r="C194" s="13" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="36" customHeight="1">
-      <c r="A195" s="24" t="s">
-        <v>438</v>
+      <c r="A195" s="22" t="s">
+        <v>426</v>
       </c>
       <c r="B195" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C195" s="13" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="36" customHeight="1">
-      <c r="A196" s="23" t="s">
-        <v>356</v>
+      <c r="A196" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="B196" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C196" s="13" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="36" customHeight="1">
-      <c r="A197" s="24" t="s">
-        <v>439</v>
+      <c r="A197" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="36" customHeight="1">
-      <c r="A198" s="24" t="s">
-        <v>439</v>
+      <c r="A198" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="36" customHeight="1">
-      <c r="A199" s="26" t="s">
-        <v>360</v>
+      <c r="A199" s="22" t="s">
+        <v>303</v>
       </c>
       <c r="B199" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="36" customHeight="1">
-      <c r="A200" s="26" t="s">
-        <v>440</v>
+      <c r="A200" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="B200" s="12" t="s">
-        <v>362</v>
+        <v>31</v>
       </c>
       <c r="C200" s="13" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="36" customHeight="1">
-      <c r="A201" s="26" t="s">
-        <v>440</v>
+      <c r="A201" s="22" t="s">
+        <v>306</v>
       </c>
       <c r="B201" s="12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C201" s="13" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="36" customHeight="1">
       <c r="A202" s="22" t="s">
-        <v>365</v>
+        <v>429</v>
       </c>
       <c r="B202" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C202" s="41" t="s">
-        <v>445</v>
+        <v>35</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="36" customHeight="1">
       <c r="A203" s="22" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B203" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C203" s="13" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="36" customHeight="1">
       <c r="A204" s="22" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="B204" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C204" s="13" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="36" customHeight="1">
       <c r="A205" s="22" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>21</v>
+        <v>312</v>
       </c>
       <c r="C205" s="13" t="s">
-        <v>370</v>
+        <v>313</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="36" customHeight="1">
       <c r="A206" s="22" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C206" s="13" t="s">
-        <v>372</v>
+        <v>314</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="36" customHeight="1">
       <c r="A207" s="22" t="s">
-        <v>443</v>
+        <v>315</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>373</v>
+        <v>11</v>
       </c>
       <c r="C207" s="13" t="s">
-        <v>374</v>
+        <v>316</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="36" customHeight="1">
       <c r="A208" s="22" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B208" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C208" s="13" t="s">
-        <v>375</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="36" customHeight="1">
       <c r="A209" s="22" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="C209" s="13" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="36" customHeight="1">
       <c r="A210" s="22" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>6</v>
+        <v>320</v>
       </c>
       <c r="C210" s="13" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="36" customHeight="1">
       <c r="A211" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="36" customHeight="1">
+      <c r="A212" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C212" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="36" customHeight="1">
+      <c r="A213" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="36" customHeight="1">
+      <c r="A214" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="36" customHeight="1">
+      <c r="A215" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="36" customHeight="1">
+      <c r="A216" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="36" customHeight="1">
+      <c r="A217" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="36" customHeight="1">
+      <c r="A218" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C218" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="36" customHeight="1">
+      <c r="A219" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="36" customHeight="1">
+      <c r="A220" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="36" customHeight="1">
+      <c r="A221" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="36" customHeight="1">
+      <c r="A222" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="36" customHeight="1">
+      <c r="A223" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="36" customHeight="1">
+      <c r="A224" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C224" s="13" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="36" customHeight="1">
+      <c r="A225" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C225" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="36" customHeight="1">
+      <c r="A226" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C226" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="36" customHeight="1">
+      <c r="A227" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="36" customHeight="1">
+      <c r="A228" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="B228" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="36" customHeight="1">
+      <c r="A229" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="36" customHeight="1">
+      <c r="A230" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="36" customHeight="1">
+      <c r="A231" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="36" customHeight="1">
+      <c r="A232" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="13" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="36" customHeight="1">
+      <c r="A233" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B233" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C233" s="13" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="36" customHeight="1">
+      <c r="A234" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="36" customHeight="1">
+      <c r="A235" s="26" t="s">
+        <v>360</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="13" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="36" customHeight="1">
+      <c r="A236" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="36" customHeight="1">
+      <c r="A237" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="36" customHeight="1">
+      <c r="A238" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C238" s="27" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="36" customHeight="1">
+      <c r="A239" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C239" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="36" customHeight="1">
+      <c r="A240" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="36" customHeight="1">
+      <c r="A241" s="22" t="s">
+        <v>442</v>
+      </c>
+      <c r="B241" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" s="13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="36" customHeight="1">
+      <c r="A242" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="36" customHeight="1">
+      <c r="A243" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B243" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C243" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="36" customHeight="1">
+      <c r="A244" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="36" customHeight="1">
+      <c r="A245" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="B245" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="36" customHeight="1">
+      <c r="A246" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B246" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="36" customHeight="1">
+      <c r="A247" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="B247" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C211" s="13" t="s">
+      <c r="C247" s="13" t="s">
         <v>380</v>
       </c>
     </row>
@@ -4874,222 +5825,258 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A113 A110 A102 A99 A94 A92 A81 A3:A26 A63 A65 A68:A69 A73 A76 A85 A88:A90 A97 A59 A105 A108 A116 A29 A35 A38 A42 A45 A48 A51:A56">
+  <conditionalFormatting sqref="A149 A146 A138 A135 A130 A128 A117 A39:A62 A99 A101 A104:A105 A109 A112 A121 A124:A126 A133 A95 A141 A144 A152 A65 A71 A74 A78 A81 A84 A87:A92">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C22" r:id="rId20"/>
-    <hyperlink ref="C23" r:id="rId21"/>
-    <hyperlink ref="C24" r:id="rId22"/>
-    <hyperlink ref="C25" r:id="rId23"/>
-    <hyperlink ref="C26" r:id="rId24"/>
-    <hyperlink ref="C27" r:id="rId25"/>
-    <hyperlink ref="C28" r:id="rId26"/>
-    <hyperlink ref="C29" r:id="rId27"/>
-    <hyperlink ref="C30" r:id="rId28"/>
-    <hyperlink ref="C35" r:id="rId29"/>
-    <hyperlink ref="C36" r:id="rId30"/>
-    <hyperlink ref="C38" r:id="rId31"/>
-    <hyperlink ref="C39" r:id="rId32"/>
-    <hyperlink ref="C40" r:id="rId33"/>
-    <hyperlink ref="C42" r:id="rId34"/>
-    <hyperlink ref="C44" r:id="rId35"/>
-    <hyperlink ref="C43" r:id="rId36"/>
-    <hyperlink ref="C46" r:id="rId37"/>
-    <hyperlink ref="C45" r:id="rId38"/>
-    <hyperlink ref="C47" r:id="rId39"/>
-    <hyperlink ref="C48" r:id="rId40"/>
-    <hyperlink ref="C49" r:id="rId41"/>
-    <hyperlink ref="C50" r:id="rId42"/>
-    <hyperlink ref="C51" r:id="rId43"/>
-    <hyperlink ref="C52" r:id="rId44"/>
-    <hyperlink ref="C56" r:id="rId45"/>
-    <hyperlink ref="C31" r:id="rId46"/>
-    <hyperlink ref="C32" r:id="rId47"/>
-    <hyperlink ref="C33" r:id="rId48"/>
-    <hyperlink ref="C34" r:id="rId49"/>
-    <hyperlink ref="C37" r:id="rId50"/>
-    <hyperlink ref="C41" r:id="rId51"/>
-    <hyperlink ref="C53" r:id="rId52"/>
-    <hyperlink ref="C54" r:id="rId53"/>
-    <hyperlink ref="C55" r:id="rId54"/>
-    <hyperlink ref="C57" r:id="rId55"/>
-    <hyperlink ref="C58" r:id="rId56"/>
-    <hyperlink ref="C59" r:id="rId57"/>
-    <hyperlink ref="C60" r:id="rId58"/>
-    <hyperlink ref="C61" r:id="rId59"/>
-    <hyperlink ref="C62" r:id="rId60"/>
-    <hyperlink ref="C63" r:id="rId61"/>
-    <hyperlink ref="C64" r:id="rId62"/>
-    <hyperlink ref="C65" r:id="rId63"/>
-    <hyperlink ref="C66" r:id="rId64"/>
-    <hyperlink ref="C67" r:id="rId65"/>
-    <hyperlink ref="C68" r:id="rId66"/>
-    <hyperlink ref="C69" r:id="rId67"/>
-    <hyperlink ref="C70" r:id="rId68"/>
-    <hyperlink ref="C71" r:id="rId69"/>
-    <hyperlink ref="C72" r:id="rId70"/>
-    <hyperlink ref="C73" r:id="rId71"/>
-    <hyperlink ref="C74" r:id="rId72"/>
-    <hyperlink ref="C75" r:id="rId73"/>
-    <hyperlink ref="C76" r:id="rId74"/>
-    <hyperlink ref="C77" r:id="rId75"/>
-    <hyperlink ref="C78" r:id="rId76"/>
-    <hyperlink ref="C79" r:id="rId77"/>
-    <hyperlink ref="C80" r:id="rId78"/>
-    <hyperlink ref="C81" r:id="rId79"/>
-    <hyperlink ref="C82" r:id="rId80"/>
-    <hyperlink ref="C83" r:id="rId81"/>
-    <hyperlink ref="C84" r:id="rId82"/>
-    <hyperlink ref="C85" r:id="rId83"/>
-    <hyperlink ref="C86" r:id="rId84"/>
-    <hyperlink ref="C87" r:id="rId85"/>
-    <hyperlink ref="C88" r:id="rId86"/>
-    <hyperlink ref="C89" r:id="rId87"/>
-    <hyperlink ref="C90" r:id="rId88"/>
-    <hyperlink ref="C91" r:id="rId89"/>
-    <hyperlink ref="C92" r:id="rId90"/>
-    <hyperlink ref="C93" r:id="rId91"/>
-    <hyperlink ref="C94" r:id="rId92"/>
-    <hyperlink ref="C95" r:id="rId93"/>
-    <hyperlink ref="C96" r:id="rId94"/>
-    <hyperlink ref="C97" r:id="rId95"/>
-    <hyperlink ref="C98" r:id="rId96"/>
-    <hyperlink ref="C99" r:id="rId97"/>
-    <hyperlink ref="C100" r:id="rId98"/>
-    <hyperlink ref="C101" r:id="rId99"/>
-    <hyperlink ref="C102" r:id="rId100"/>
-    <hyperlink ref="C103" r:id="rId101"/>
-    <hyperlink ref="C104" r:id="rId102"/>
-    <hyperlink ref="C105" r:id="rId103"/>
-    <hyperlink ref="C106" r:id="rId104"/>
-    <hyperlink ref="C107" r:id="rId105"/>
-    <hyperlink ref="C108" r:id="rId106"/>
-    <hyperlink ref="C109" r:id="rId107"/>
-    <hyperlink ref="C110" r:id="rId108"/>
-    <hyperlink ref="C111" r:id="rId109"/>
-    <hyperlink ref="C112" r:id="rId110"/>
-    <hyperlink ref="C113" r:id="rId111"/>
-    <hyperlink ref="C114" r:id="rId112"/>
-    <hyperlink ref="C115" r:id="rId113"/>
-    <hyperlink ref="C116" r:id="rId114"/>
-    <hyperlink ref="C117" r:id="rId115"/>
-    <hyperlink ref="C118" r:id="rId116"/>
-    <hyperlink ref="C151" r:id="rId117"/>
-    <hyperlink ref="C152" r:id="rId118"/>
-    <hyperlink ref="C153" r:id="rId119"/>
-    <hyperlink ref="C122" r:id="rId120"/>
-    <hyperlink ref="C123" r:id="rId121"/>
-    <hyperlink ref="C128" r:id="rId122"/>
-    <hyperlink ref="C129" r:id="rId123"/>
-    <hyperlink ref="C130" r:id="rId124"/>
-    <hyperlink ref="C124" r:id="rId125"/>
-    <hyperlink ref="C125" r:id="rId126"/>
-    <hyperlink ref="C126" r:id="rId127"/>
-    <hyperlink ref="C127" r:id="rId128"/>
-    <hyperlink ref="C199" r:id="rId129"/>
-    <hyperlink ref="C200" r:id="rId130"/>
-    <hyperlink ref="C201" r:id="rId131"/>
-    <hyperlink ref="C131" r:id="rId132"/>
-    <hyperlink ref="C132" r:id="rId133"/>
-    <hyperlink ref="C133" r:id="rId134"/>
-    <hyperlink ref="C134" r:id="rId135"/>
-    <hyperlink ref="C135" r:id="rId136"/>
-    <hyperlink ref="C136" r:id="rId137"/>
-    <hyperlink ref="C137" r:id="rId138"/>
-    <hyperlink ref="C138" r:id="rId139"/>
-    <hyperlink ref="C139" r:id="rId140"/>
-    <hyperlink ref="C140" r:id="rId141"/>
-    <hyperlink ref="C141" r:id="rId142"/>
-    <hyperlink ref="C142" r:id="rId143"/>
-    <hyperlink ref="C143" r:id="rId144"/>
-    <hyperlink ref="C144" r:id="rId145"/>
-    <hyperlink ref="C145" r:id="rId146"/>
-    <hyperlink ref="C146" r:id="rId147"/>
-    <hyperlink ref="C147" r:id="rId148"/>
-    <hyperlink ref="C148" r:id="rId149"/>
-    <hyperlink ref="C149" r:id="rId150"/>
-    <hyperlink ref="C150" r:id="rId151"/>
-    <hyperlink ref="C154" r:id="rId152"/>
-    <hyperlink ref="C155" r:id="rId153"/>
-    <hyperlink ref="C156" r:id="rId154"/>
-    <hyperlink ref="C157" r:id="rId155"/>
-    <hyperlink ref="C158" r:id="rId156"/>
-    <hyperlink ref="C159" r:id="rId157"/>
-    <hyperlink ref="C160" r:id="rId158"/>
-    <hyperlink ref="C161" r:id="rId159"/>
-    <hyperlink ref="C162" r:id="rId160"/>
-    <hyperlink ref="C163" r:id="rId161"/>
-    <hyperlink ref="C164" r:id="rId162"/>
-    <hyperlink ref="C165" r:id="rId163"/>
-    <hyperlink ref="C166" r:id="rId164"/>
-    <hyperlink ref="C167" r:id="rId165"/>
-    <hyperlink ref="C168" r:id="rId166"/>
-    <hyperlink ref="C169" r:id="rId167"/>
-    <hyperlink ref="C170" r:id="rId168"/>
-    <hyperlink ref="C171" r:id="rId169"/>
-    <hyperlink ref="C172" r:id="rId170"/>
-    <hyperlink ref="C173" r:id="rId171"/>
-    <hyperlink ref="C174" r:id="rId172"/>
-    <hyperlink ref="C175" r:id="rId173"/>
-    <hyperlink ref="C176" r:id="rId174"/>
-    <hyperlink ref="C177" r:id="rId175"/>
-    <hyperlink ref="C203" r:id="rId176"/>
-    <hyperlink ref="C178" r:id="rId177"/>
-    <hyperlink ref="C179" r:id="rId178"/>
-    <hyperlink ref="C180" r:id="rId179"/>
-    <hyperlink ref="C181" r:id="rId180"/>
-    <hyperlink ref="C182" r:id="rId181"/>
-    <hyperlink ref="C183" r:id="rId182"/>
-    <hyperlink ref="C184" r:id="rId183"/>
-    <hyperlink ref="C185" r:id="rId184"/>
-    <hyperlink ref="C186" r:id="rId185"/>
-    <hyperlink ref="C187" r:id="rId186"/>
-    <hyperlink ref="C188" r:id="rId187"/>
-    <hyperlink ref="C189" r:id="rId188"/>
-    <hyperlink ref="C204" r:id="rId189"/>
-    <hyperlink ref="C205" r:id="rId190"/>
-    <hyperlink ref="C190" r:id="rId191"/>
-    <hyperlink ref="C191" r:id="rId192"/>
-    <hyperlink ref="C192" r:id="rId193"/>
-    <hyperlink ref="C193" r:id="rId194"/>
-    <hyperlink ref="C194" r:id="rId195"/>
-    <hyperlink ref="C195" r:id="rId196"/>
-    <hyperlink ref="C196" r:id="rId197"/>
-    <hyperlink ref="C197" r:id="rId198"/>
-    <hyperlink ref="C198" r:id="rId199"/>
-    <hyperlink ref="C206" r:id="rId200"/>
-    <hyperlink ref="C207" r:id="rId201"/>
-    <hyperlink ref="C208" r:id="rId202"/>
-    <hyperlink ref="C209" r:id="rId203"/>
-    <hyperlink ref="C210" r:id="rId204"/>
-    <hyperlink ref="C211" r:id="rId205"/>
-    <hyperlink ref="C119" r:id="rId206"/>
-    <hyperlink ref="C120" r:id="rId207"/>
-    <hyperlink ref="C121" r:id="rId208"/>
-    <hyperlink ref="C202" r:id="rId209"/>
+    <hyperlink ref="C74" r:id="rId1"/>
+    <hyperlink ref="C75" r:id="rId2"/>
+    <hyperlink ref="C76" r:id="rId3"/>
+    <hyperlink ref="C78" r:id="rId4"/>
+    <hyperlink ref="C80" r:id="rId5"/>
+    <hyperlink ref="C79" r:id="rId6"/>
+    <hyperlink ref="C82" r:id="rId7"/>
+    <hyperlink ref="C81" r:id="rId8"/>
+    <hyperlink ref="C83" r:id="rId9"/>
+    <hyperlink ref="C84" r:id="rId10"/>
+    <hyperlink ref="C85" r:id="rId11"/>
+    <hyperlink ref="C86" r:id="rId12"/>
+    <hyperlink ref="C87" r:id="rId13"/>
+    <hyperlink ref="C88" r:id="rId14"/>
+    <hyperlink ref="C92" r:id="rId15"/>
+    <hyperlink ref="C77" r:id="rId16"/>
+    <hyperlink ref="C89" r:id="rId17"/>
+    <hyperlink ref="C90" r:id="rId18"/>
+    <hyperlink ref="C91" r:id="rId19"/>
+    <hyperlink ref="C93" r:id="rId20"/>
+    <hyperlink ref="C94" r:id="rId21"/>
+    <hyperlink ref="C95" r:id="rId22"/>
+    <hyperlink ref="C96" r:id="rId23"/>
+    <hyperlink ref="C97" r:id="rId24"/>
+    <hyperlink ref="C98" r:id="rId25"/>
+    <hyperlink ref="C99" r:id="rId26"/>
+    <hyperlink ref="C100" r:id="rId27"/>
+    <hyperlink ref="C101" r:id="rId28"/>
+    <hyperlink ref="C102" r:id="rId29"/>
+    <hyperlink ref="C103" r:id="rId30"/>
+    <hyperlink ref="C104" r:id="rId31"/>
+    <hyperlink ref="C105" r:id="rId32"/>
+    <hyperlink ref="C106" r:id="rId33"/>
+    <hyperlink ref="C107" r:id="rId34"/>
+    <hyperlink ref="C108" r:id="rId35"/>
+    <hyperlink ref="C109" r:id="rId36"/>
+    <hyperlink ref="C110" r:id="rId37"/>
+    <hyperlink ref="C111" r:id="rId38"/>
+    <hyperlink ref="C112" r:id="rId39"/>
+    <hyperlink ref="C113" r:id="rId40"/>
+    <hyperlink ref="C114" r:id="rId41"/>
+    <hyperlink ref="C115" r:id="rId42"/>
+    <hyperlink ref="C116" r:id="rId43"/>
+    <hyperlink ref="C117" r:id="rId44"/>
+    <hyperlink ref="C118" r:id="rId45"/>
+    <hyperlink ref="C119" r:id="rId46"/>
+    <hyperlink ref="C120" r:id="rId47"/>
+    <hyperlink ref="C121" r:id="rId48"/>
+    <hyperlink ref="C122" r:id="rId49"/>
+    <hyperlink ref="C123" r:id="rId50"/>
+    <hyperlink ref="C124" r:id="rId51"/>
+    <hyperlink ref="C125" r:id="rId52"/>
+    <hyperlink ref="C126" r:id="rId53"/>
+    <hyperlink ref="C127" r:id="rId54"/>
+    <hyperlink ref="C128" r:id="rId55"/>
+    <hyperlink ref="C129" r:id="rId56"/>
+    <hyperlink ref="C130" r:id="rId57"/>
+    <hyperlink ref="C131" r:id="rId58"/>
+    <hyperlink ref="C132" r:id="rId59"/>
+    <hyperlink ref="C133" r:id="rId60"/>
+    <hyperlink ref="C134" r:id="rId61"/>
+    <hyperlink ref="C135" r:id="rId62"/>
+    <hyperlink ref="C136" r:id="rId63"/>
+    <hyperlink ref="C137" r:id="rId64"/>
+    <hyperlink ref="C138" r:id="rId65"/>
+    <hyperlink ref="C139" r:id="rId66"/>
+    <hyperlink ref="C140" r:id="rId67"/>
+    <hyperlink ref="C141" r:id="rId68"/>
+    <hyperlink ref="C142" r:id="rId69"/>
+    <hyperlink ref="C143" r:id="rId70"/>
+    <hyperlink ref="C144" r:id="rId71"/>
+    <hyperlink ref="C145" r:id="rId72"/>
+    <hyperlink ref="C146" r:id="rId73"/>
+    <hyperlink ref="C147" r:id="rId74"/>
+    <hyperlink ref="C148" r:id="rId75"/>
+    <hyperlink ref="C149" r:id="rId76"/>
+    <hyperlink ref="C150" r:id="rId77"/>
+    <hyperlink ref="C151" r:id="rId78"/>
+    <hyperlink ref="C152" r:id="rId79"/>
+    <hyperlink ref="C153" r:id="rId80"/>
+    <hyperlink ref="C154" r:id="rId81"/>
+    <hyperlink ref="C187" r:id="rId82"/>
+    <hyperlink ref="C188" r:id="rId83"/>
+    <hyperlink ref="C189" r:id="rId84"/>
+    <hyperlink ref="C158" r:id="rId85"/>
+    <hyperlink ref="C159" r:id="rId86"/>
+    <hyperlink ref="C164" r:id="rId87"/>
+    <hyperlink ref="C165" r:id="rId88"/>
+    <hyperlink ref="C166" r:id="rId89"/>
+    <hyperlink ref="C160" r:id="rId90"/>
+    <hyperlink ref="C161" r:id="rId91"/>
+    <hyperlink ref="C162" r:id="rId92"/>
+    <hyperlink ref="C163" r:id="rId93"/>
+    <hyperlink ref="C235" r:id="rId94"/>
+    <hyperlink ref="C236" r:id="rId95"/>
+    <hyperlink ref="C237" r:id="rId96"/>
+    <hyperlink ref="C167" r:id="rId97"/>
+    <hyperlink ref="C168" r:id="rId98"/>
+    <hyperlink ref="C169" r:id="rId99"/>
+    <hyperlink ref="C170" r:id="rId100"/>
+    <hyperlink ref="C171" r:id="rId101"/>
+    <hyperlink ref="C172" r:id="rId102"/>
+    <hyperlink ref="C173" r:id="rId103"/>
+    <hyperlink ref="C174" r:id="rId104"/>
+    <hyperlink ref="C175" r:id="rId105"/>
+    <hyperlink ref="C176" r:id="rId106"/>
+    <hyperlink ref="C177" r:id="rId107"/>
+    <hyperlink ref="C178" r:id="rId108"/>
+    <hyperlink ref="C179" r:id="rId109"/>
+    <hyperlink ref="C180" r:id="rId110"/>
+    <hyperlink ref="C181" r:id="rId111"/>
+    <hyperlink ref="C182" r:id="rId112"/>
+    <hyperlink ref="C183" r:id="rId113"/>
+    <hyperlink ref="C184" r:id="rId114"/>
+    <hyperlink ref="C190" r:id="rId115"/>
+    <hyperlink ref="C191" r:id="rId116"/>
+    <hyperlink ref="C192" r:id="rId117"/>
+    <hyperlink ref="C193" r:id="rId118"/>
+    <hyperlink ref="C194" r:id="rId119"/>
+    <hyperlink ref="C195" r:id="rId120"/>
+    <hyperlink ref="C196" r:id="rId121"/>
+    <hyperlink ref="C197" r:id="rId122"/>
+    <hyperlink ref="C198" r:id="rId123"/>
+    <hyperlink ref="C199" r:id="rId124"/>
+    <hyperlink ref="C200" r:id="rId125"/>
+    <hyperlink ref="C201" r:id="rId126"/>
+    <hyperlink ref="C202" r:id="rId127"/>
+    <hyperlink ref="C203" r:id="rId128"/>
+    <hyperlink ref="C204" r:id="rId129"/>
+    <hyperlink ref="C205" r:id="rId130"/>
+    <hyperlink ref="C206" r:id="rId131"/>
+    <hyperlink ref="C207" r:id="rId132"/>
+    <hyperlink ref="C208" r:id="rId133"/>
+    <hyperlink ref="C209" r:id="rId134"/>
+    <hyperlink ref="C210" r:id="rId135"/>
+    <hyperlink ref="C211" r:id="rId136"/>
+    <hyperlink ref="C212" r:id="rId137"/>
+    <hyperlink ref="C213" r:id="rId138"/>
+    <hyperlink ref="C239" r:id="rId139"/>
+    <hyperlink ref="C214" r:id="rId140"/>
+    <hyperlink ref="C215" r:id="rId141"/>
+    <hyperlink ref="C216" r:id="rId142"/>
+    <hyperlink ref="C217" r:id="rId143"/>
+    <hyperlink ref="C218" r:id="rId144"/>
+    <hyperlink ref="C219" r:id="rId145"/>
+    <hyperlink ref="C220" r:id="rId146"/>
+    <hyperlink ref="C221" r:id="rId147"/>
+    <hyperlink ref="C222" r:id="rId148"/>
+    <hyperlink ref="C223" r:id="rId149"/>
+    <hyperlink ref="C224" r:id="rId150"/>
+    <hyperlink ref="C225" r:id="rId151"/>
+    <hyperlink ref="C240" r:id="rId152"/>
+    <hyperlink ref="C241" r:id="rId153"/>
+    <hyperlink ref="C226" r:id="rId154"/>
+    <hyperlink ref="C227" r:id="rId155"/>
+    <hyperlink ref="C228" r:id="rId156"/>
+    <hyperlink ref="C229" r:id="rId157"/>
+    <hyperlink ref="C230" r:id="rId158"/>
+    <hyperlink ref="C231" r:id="rId159"/>
+    <hyperlink ref="C232" r:id="rId160"/>
+    <hyperlink ref="C233" r:id="rId161"/>
+    <hyperlink ref="C234" r:id="rId162"/>
+    <hyperlink ref="C242" r:id="rId163"/>
+    <hyperlink ref="C243" r:id="rId164"/>
+    <hyperlink ref="C244" r:id="rId165"/>
+    <hyperlink ref="C245" r:id="rId166"/>
+    <hyperlink ref="C246" r:id="rId167"/>
+    <hyperlink ref="C247" r:id="rId168"/>
+    <hyperlink ref="C155" r:id="rId169"/>
+    <hyperlink ref="C156" r:id="rId170"/>
+    <hyperlink ref="C157" r:id="rId171"/>
+    <hyperlink ref="C238" r:id="rId172"/>
+    <hyperlink ref="C185" r:id="rId173"/>
+    <hyperlink ref="C186" r:id="rId174"/>
+    <hyperlink ref="C40" r:id="rId175"/>
+    <hyperlink ref="C41" r:id="rId176"/>
+    <hyperlink ref="C39" r:id="rId177"/>
+    <hyperlink ref="C42" r:id="rId178"/>
+    <hyperlink ref="C43" r:id="rId179"/>
+    <hyperlink ref="C44" r:id="rId180"/>
+    <hyperlink ref="C45" r:id="rId181"/>
+    <hyperlink ref="C46" r:id="rId182"/>
+    <hyperlink ref="C47" r:id="rId183"/>
+    <hyperlink ref="C48" r:id="rId184"/>
+    <hyperlink ref="C49" r:id="rId185"/>
+    <hyperlink ref="C50" r:id="rId186"/>
+    <hyperlink ref="C51" r:id="rId187"/>
+    <hyperlink ref="C52" r:id="rId188"/>
+    <hyperlink ref="C53" r:id="rId189"/>
+    <hyperlink ref="C55" r:id="rId190"/>
+    <hyperlink ref="C54" r:id="rId191"/>
+    <hyperlink ref="C56" r:id="rId192"/>
+    <hyperlink ref="C57" r:id="rId193"/>
+    <hyperlink ref="C58" r:id="rId194"/>
+    <hyperlink ref="C59" r:id="rId195"/>
+    <hyperlink ref="C60" r:id="rId196"/>
+    <hyperlink ref="C61" r:id="rId197"/>
+    <hyperlink ref="C62" r:id="rId198"/>
+    <hyperlink ref="C63" r:id="rId199"/>
+    <hyperlink ref="C64" r:id="rId200"/>
+    <hyperlink ref="C65" r:id="rId201"/>
+    <hyperlink ref="C66" r:id="rId202"/>
+    <hyperlink ref="C72" r:id="rId203"/>
+    <hyperlink ref="C67" r:id="rId204"/>
+    <hyperlink ref="C68" r:id="rId205"/>
+    <hyperlink ref="C69" r:id="rId206"/>
+    <hyperlink ref="C70" r:id="rId207"/>
+    <hyperlink ref="C73" r:id="rId208"/>
+    <hyperlink ref="C71" r:id="rId209"/>
+    <hyperlink ref="C3" r:id="rId210"/>
+    <hyperlink ref="C4" r:id="rId211"/>
+    <hyperlink ref="C5" r:id="rId212"/>
+    <hyperlink ref="C6" r:id="rId213"/>
+    <hyperlink ref="C7" r:id="rId214"/>
+    <hyperlink ref="C8" r:id="rId215"/>
+    <hyperlink ref="C9" r:id="rId216"/>
+    <hyperlink ref="C10" r:id="rId217"/>
+    <hyperlink ref="C11" r:id="rId218"/>
+    <hyperlink ref="C12" r:id="rId219"/>
+    <hyperlink ref="C13" r:id="rId220"/>
+    <hyperlink ref="C14" r:id="rId221"/>
+    <hyperlink ref="C15" r:id="rId222"/>
+    <hyperlink ref="C16" r:id="rId223"/>
+    <hyperlink ref="C38" r:id="rId224"/>
+    <hyperlink ref="C37" r:id="rId225"/>
+    <hyperlink ref="C36" r:id="rId226"/>
+    <hyperlink ref="C35" r:id="rId227"/>
+    <hyperlink ref="C34" r:id="rId228"/>
+    <hyperlink ref="C33" r:id="rId229"/>
+    <hyperlink ref="C32" r:id="rId230"/>
+    <hyperlink ref="C31" r:id="rId231"/>
+    <hyperlink ref="C30" r:id="rId232"/>
+    <hyperlink ref="C29" r:id="rId233"/>
+    <hyperlink ref="C28" r:id="rId234"/>
+    <hyperlink ref="C27" r:id="rId235"/>
+    <hyperlink ref="C26" r:id="rId236"/>
+    <hyperlink ref="C25" r:id="rId237"/>
+    <hyperlink ref="C24" r:id="rId238"/>
+    <hyperlink ref="C23" r:id="rId239"/>
+    <hyperlink ref="C22" r:id="rId240"/>
+    <hyperlink ref="C21" r:id="rId241"/>
+    <hyperlink ref="C20" r:id="rId242"/>
+    <hyperlink ref="C19" r:id="rId243"/>
+    <hyperlink ref="C18" r:id="rId244"/>
+    <hyperlink ref="C17" r:id="rId245"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId210"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId246"/>
 </worksheet>
 </file>
 
@@ -5109,11 +6096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -5127,7 +6114,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5138,7 +6125,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1">
-      <c r="A4" s="31"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -5147,7 +6134,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
-      <c r="A5" s="32"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
@@ -5156,7 +6143,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -5167,7 +6154,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -5176,7 +6163,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
@@ -5185,7 +6172,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="4" t="s">
         <v>23</v>
       </c>
@@ -5194,7 +6181,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="32"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
@@ -5203,7 +6190,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -5214,7 +6201,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -5223,7 +6210,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" customHeight="1">
-      <c r="A13" s="32"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
@@ -5232,7 +6219,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -5243,7 +6230,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="31"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -5252,7 +6239,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" customHeight="1">
-      <c r="A16" s="31"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -5261,7 +6248,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="35"/>
       <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
@@ -5270,7 +6257,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="33" t="s">
         <v>41</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -5281,7 +6268,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="31"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -5290,7 +6277,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="31"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="4" t="s">
         <v>45</v>
       </c>
@@ -5299,7 +6286,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="31"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="4" t="s">
         <v>31</v>
       </c>
@@ -5308,7 +6295,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="31"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="4" t="s">
         <v>48</v>
       </c>
@@ -5317,7 +6304,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="31"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="4" t="s">
         <v>50</v>
       </c>
@@ -5326,7 +6313,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="31"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="4" t="s">
         <v>52</v>
       </c>
@@ -5335,7 +6322,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="32"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="4" t="s">
         <v>54</v>
       </c>
@@ -5344,7 +6331,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -5355,7 +6342,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="31"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="4" t="s">
         <v>58</v>
       </c>
@@ -5364,7 +6351,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="35"/>
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
@@ -5373,7 +6360,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="36" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -5384,7 +6371,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="32"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="4" t="s">
         <v>64</v>
       </c>
@@ -5393,7 +6380,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="36" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -5404,7 +6391,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="34"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="4" t="s">
         <v>31</v>
       </c>
@@ -5413,7 +6400,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="34"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="4" t="s">
         <v>69</v>
       </c>
@@ -5422,7 +6409,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="34"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="4" t="s">
         <v>71</v>
       </c>
@@ -5431,7 +6418,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -5442,7 +6429,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="31"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="4" t="s">
         <v>21</v>
       </c>
@@ -5451,7 +6438,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="31"/>
+      <c r="A37" s="34"/>
       <c r="B37" s="5" t="s">
         <v>76</v>
       </c>
@@ -5460,7 +6447,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -5471,7 +6458,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="31"/>
+      <c r="A39" s="34"/>
       <c r="B39" s="4" t="s">
         <v>80</v>
       </c>
@@ -5480,7 +6467,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
-      <c r="A40" s="31"/>
+      <c r="A40" s="34"/>
       <c r="B40" s="4" t="s">
         <v>82</v>
       </c>
@@ -5489,7 +6476,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
-      <c r="A41" s="32"/>
+      <c r="A41" s="35"/>
       <c r="B41" s="4" t="s">
         <v>84</v>
       </c>
@@ -5498,7 +6485,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -5509,7 +6496,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
-      <c r="A43" s="31"/>
+      <c r="A43" s="34"/>
       <c r="B43" s="4" t="s">
         <v>88</v>
       </c>
@@ -5518,7 +6505,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="32"/>
+      <c r="A44" s="35"/>
       <c r="B44" s="4" t="s">
         <v>90</v>
       </c>
@@ -5527,7 +6514,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -5538,7 +6525,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="31"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="4" t="s">
         <v>94</v>
       </c>
@@ -5547,7 +6534,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="32"/>
+      <c r="A47" s="35"/>
       <c r="B47" s="4" t="s">
         <v>96</v>
       </c>
@@ -5556,7 +6543,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -5567,7 +6554,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="31"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="4" t="s">
         <v>100</v>
       </c>
@@ -5576,7 +6563,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="32"/>
+      <c r="A50" s="35"/>
       <c r="B50" s="4" t="s">
         <v>96</v>
       </c>
@@ -5585,7 +6572,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -5596,7 +6583,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="31"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="4" t="s">
         <v>105</v>
       </c>
@@ -5605,7 +6592,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="31"/>
+      <c r="A53" s="34"/>
       <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
@@ -5614,7 +6601,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="31"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="4" t="s">
         <v>109</v>
       </c>
@@ -5623,7 +6610,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="32"/>
+      <c r="A55" s="35"/>
       <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
@@ -5632,7 +6619,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -5643,7 +6630,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
-      <c r="A57" s="31"/>
+      <c r="A57" s="34"/>
       <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
@@ -5652,7 +6639,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
-      <c r="A58" s="31"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
@@ -5661,7 +6648,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="33" t="s">
         <v>119</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5672,7 +6659,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
-      <c r="A60" s="31"/>
+      <c r="A60" s="34"/>
       <c r="B60" s="4" t="s">
         <v>121</v>
       </c>
@@ -5681,7 +6668,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="31"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="4" t="s">
         <v>84</v>
       </c>
@@ -5690,7 +6677,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="31"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="4" t="s">
         <v>124</v>
       </c>
@@ -5699,7 +6686,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="33" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -5710,7 +6697,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="31"/>
+      <c r="A64" s="34"/>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
@@ -5719,7 +6706,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" customHeight="1">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="33" t="s">
         <v>129</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -5730,7 +6717,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" customHeight="1">
-      <c r="A66" s="31"/>
+      <c r="A66" s="34"/>
       <c r="B66" s="4" t="s">
         <v>5</v>
       </c>
@@ -5739,7 +6726,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" customHeight="1">
-      <c r="A67" s="31"/>
+      <c r="A67" s="34"/>
       <c r="B67" s="4" t="s">
         <v>132</v>
       </c>
@@ -5759,7 +6746,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="36" customHeight="1">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="33" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -5770,7 +6757,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="36" customHeight="1">
-      <c r="A70" s="31"/>
+      <c r="A70" s="34"/>
       <c r="B70" s="4" t="s">
         <v>138</v>
       </c>
@@ -5779,7 +6766,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="36" customHeight="1">
-      <c r="A71" s="31"/>
+      <c r="A71" s="34"/>
       <c r="B71" s="4" t="s">
         <v>31</v>
       </c>
@@ -5788,7 +6775,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="36" customHeight="1">
-      <c r="A72" s="32"/>
+      <c r="A72" s="35"/>
       <c r="B72" s="4" t="s">
         <v>141</v>
       </c>
@@ -5797,7 +6784,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="36" customHeight="1">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="33" t="s">
         <v>143</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5808,7 +6795,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="36" customHeight="1">
-      <c r="A74" s="31"/>
+      <c r="A74" s="34"/>
       <c r="B74" s="4" t="s">
         <v>145</v>
       </c>
@@ -5817,7 +6804,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="36" customHeight="1">
-      <c r="A75" s="31"/>
+      <c r="A75" s="34"/>
       <c r="B75" s="4" t="s">
         <v>84</v>
       </c>
@@ -5826,7 +6813,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="36" customHeight="1">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="33" t="s">
         <v>148</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -5837,7 +6824,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="36" customHeight="1">
-      <c r="A77" s="31"/>
+      <c r="A77" s="34"/>
       <c r="B77" s="4" t="s">
         <v>150</v>
       </c>
@@ -5846,7 +6833,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="36" customHeight="1">
-      <c r="A78" s="31"/>
+      <c r="A78" s="34"/>
       <c r="B78" s="4" t="s">
         <v>21</v>
       </c>
@@ -5855,7 +6842,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="36" customHeight="1">
-      <c r="A79" s="31"/>
+      <c r="A79" s="34"/>
       <c r="B79" s="4" t="s">
         <v>153</v>
       </c>
@@ -5864,7 +6851,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="36" customHeight="1">
-      <c r="A80" s="31"/>
+      <c r="A80" s="34"/>
       <c r="B80" s="4" t="s">
         <v>155</v>
       </c>
@@ -5873,7 +6860,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="36" customHeight="1">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="33" t="s">
         <v>157</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5884,7 +6871,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" customHeight="1">
-      <c r="A82" s="31"/>
+      <c r="A82" s="34"/>
       <c r="B82" s="4" t="s">
         <v>31</v>
       </c>
@@ -5893,7 +6880,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" customHeight="1">
-      <c r="A83" s="31"/>
+      <c r="A83" s="34"/>
       <c r="B83" s="4" t="s">
         <v>160</v>
       </c>
@@ -5902,7 +6889,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" customHeight="1">
-      <c r="A84" s="32"/>
+      <c r="A84" s="35"/>
       <c r="B84" s="4" t="s">
         <v>162</v>
       </c>
@@ -5911,7 +6898,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" customHeight="1">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="33" t="s">
         <v>164</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5922,7 +6909,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="31"/>
+      <c r="A86" s="34"/>
       <c r="B86" s="4" t="s">
         <v>166</v>
       </c>
@@ -5931,7 +6918,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="36" customHeight="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="34"/>
       <c r="B87" s="4" t="s">
         <v>21</v>
       </c>
@@ -5940,7 +6927,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="36" customHeight="1">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5951,7 +6938,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" customHeight="1">
-      <c r="A89" s="31"/>
+      <c r="A89" s="34"/>
       <c r="B89" s="4" t="s">
         <v>21</v>
       </c>
@@ -5960,7 +6947,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="36" customHeight="1">
-      <c r="A90" s="31"/>
+      <c r="A90" s="34"/>
       <c r="B90" s="4" t="s">
         <v>172</v>
       </c>
@@ -5969,7 +6956,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="36" customHeight="1">
-      <c r="A91" s="31"/>
+      <c r="A91" s="34"/>
       <c r="B91" s="4" t="s">
         <v>174</v>
       </c>
@@ -5978,7 +6965,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="36" customHeight="1">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="33" t="s">
         <v>176</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -5989,7 +6976,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="36" customHeight="1">
-      <c r="A93" s="31"/>
+      <c r="A93" s="34"/>
       <c r="B93" s="4" t="s">
         <v>21</v>
       </c>
@@ -5998,7 +6985,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="36" customHeight="1">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="33" t="s">
         <v>179</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -6009,7 +6996,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="36" customHeight="1">
-      <c r="A95" s="31"/>
+      <c r="A95" s="34"/>
       <c r="B95" s="4" t="s">
         <v>181</v>
       </c>
@@ -6018,7 +7005,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="36" customHeight="1">
-      <c r="A96" s="32"/>
+      <c r="A96" s="35"/>
       <c r="B96" s="4" t="s">
         <v>183</v>
       </c>
@@ -6027,7 +7014,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="36" customHeight="1">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="33" t="s">
         <v>185</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -6038,7 +7025,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="36" customHeight="1">
-      <c r="A98" s="31"/>
+      <c r="A98" s="34"/>
       <c r="B98" s="4" t="s">
         <v>187</v>
       </c>
@@ -6047,7 +7034,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="36" customHeight="1">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="33" t="s">
         <v>189</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -6058,7 +7045,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="36" customHeight="1">
-      <c r="A100" s="31"/>
+      <c r="A100" s="34"/>
       <c r="B100" s="4" t="s">
         <v>191</v>
       </c>
@@ -6067,7 +7054,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="36" customHeight="1">
-      <c r="A101" s="31"/>
+      <c r="A101" s="34"/>
       <c r="B101" s="4" t="s">
         <v>191</v>
       </c>
@@ -6076,7 +7063,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" ht="36" customHeight="1">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="33" t="s">
         <v>194</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -6087,7 +7074,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" ht="36" customHeight="1">
-      <c r="A103" s="31"/>
+      <c r="A103" s="34"/>
       <c r="B103" s="4" t="s">
         <v>196</v>
       </c>
@@ -6096,7 +7083,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="36" customHeight="1">
-      <c r="A104" s="32"/>
+      <c r="A104" s="35"/>
       <c r="B104" s="4" t="s">
         <v>198</v>
       </c>
@@ -6105,7 +7092,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="36" customHeight="1">
-      <c r="A105" s="30" t="s">
+      <c r="A105" s="33" t="s">
         <v>200</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6116,7 +7103,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="36" customHeight="1">
-      <c r="A106" s="31"/>
+      <c r="A106" s="34"/>
       <c r="B106" s="4" t="s">
         <v>21</v>
       </c>
@@ -6125,7 +7112,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="36" customHeight="1">
-      <c r="A107" s="32"/>
+      <c r="A107" s="35"/>
       <c r="B107" s="4" t="s">
         <v>203</v>
       </c>
@@ -6134,7 +7121,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="36" customHeight="1">
-      <c r="A108" s="30" t="s">
+      <c r="A108" s="33" t="s">
         <v>205</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6145,7 +7132,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="36" customHeight="1">
-      <c r="A109" s="31"/>
+      <c r="A109" s="34"/>
       <c r="B109" s="4" t="s">
         <v>96</v>
       </c>
@@ -6154,7 +7141,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" ht="36" customHeight="1">
-      <c r="A110" s="30" t="s">
+      <c r="A110" s="33" t="s">
         <v>208</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6165,7 +7152,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="36" customHeight="1">
-      <c r="A111" s="31"/>
+      <c r="A111" s="34"/>
       <c r="B111" s="4" t="s">
         <v>21</v>
       </c>
@@ -6174,7 +7161,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="36" customHeight="1">
-      <c r="A112" s="31"/>
+      <c r="A112" s="34"/>
       <c r="B112" s="4" t="s">
         <v>211</v>
       </c>
@@ -6183,7 +7170,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="36" customHeight="1">
-      <c r="A113" s="30" t="s">
+      <c r="A113" s="33" t="s">
         <v>213</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -6194,7 +7181,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="36" customHeight="1">
-      <c r="A114" s="31"/>
+      <c r="A114" s="34"/>
       <c r="B114" s="4" t="s">
         <v>215</v>
       </c>
@@ -6203,7 +7190,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="36" customHeight="1">
-      <c r="A115" s="32"/>
+      <c r="A115" s="35"/>
       <c r="B115" s="4" t="s">
         <v>217</v>
       </c>
@@ -6212,7 +7199,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="36" customHeight="1">
-      <c r="A116" s="30" t="s">
+      <c r="A116" s="33" t="s">
         <v>219</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -6223,7 +7210,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="36" customHeight="1">
-      <c r="A117" s="31"/>
+      <c r="A117" s="34"/>
       <c r="B117" s="4" t="s">
         <v>221</v>
       </c>
@@ -6232,7 +7219,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" ht="36" customHeight="1">
-      <c r="A118" s="32"/>
+      <c r="A118" s="35"/>
       <c r="B118" s="4" t="s">
         <v>221</v>
       </c>
@@ -6420,11 +7407,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="36" customHeight="1">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
     <row r="2" spans="1:3" ht="36" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -6438,7 +7425,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>225</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -6449,7 +7436,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="36" customHeight="1">
-      <c r="A4" s="35"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="12" t="s">
         <v>227</v>
       </c>
@@ -6458,7 +7445,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="36" customHeight="1">
-      <c r="A5" s="35"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="12" t="s">
         <v>21</v>
       </c>
@@ -6467,7 +7454,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="36" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>230</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -6478,7 +7465,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="36" customHeight="1">
-      <c r="A7" s="35"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="12" t="s">
         <v>232</v>
       </c>
@@ -6487,7 +7474,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="36" customHeight="1">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="38" t="s">
         <v>234</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -6498,7 +7485,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="35"/>
+      <c r="A9" s="38"/>
       <c r="B9" s="12" t="s">
         <v>236</v>
       </c>
@@ -6507,7 +7494,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="36" customHeight="1">
-      <c r="A10" s="35"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="12" t="s">
         <v>238</v>
       </c>
@@ -6516,7 +7503,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="36" customHeight="1">
-      <c r="A11" s="35"/>
+      <c r="A11" s="38"/>
       <c r="B11" s="12" t="s">
         <v>240</v>
       </c>
@@ -6525,7 +7512,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="38" t="s">
         <v>242</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -6536,7 +7523,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="36" customHeight="1">
-      <c r="A13" s="35"/>
+      <c r="A13" s="38"/>
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
@@ -6545,7 +7532,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="36" customHeight="1">
-      <c r="A14" s="35"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="12" t="s">
         <v>245</v>
       </c>
@@ -6554,7 +7541,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="36" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="38" t="s">
         <v>247</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -6565,7 +7552,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="36" customHeight="1">
-      <c r="A16" s="35"/>
+      <c r="A16" s="38"/>
       <c r="B16" s="12" t="s">
         <v>249</v>
       </c>
@@ -6574,7 +7561,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="36" customHeight="1">
-      <c r="A17" s="35"/>
+      <c r="A17" s="38"/>
       <c r="B17" s="12" t="s">
         <v>251</v>
       </c>
@@ -6583,7 +7570,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="36" customHeight="1">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="38" t="s">
         <v>253</v>
       </c>
       <c r="B18" s="12" t="s">
@@ -6594,7 +7581,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="36" customHeight="1">
-      <c r="A19" s="35"/>
+      <c r="A19" s="38"/>
       <c r="B19" s="12" t="s">
         <v>255</v>
       </c>
@@ -6603,7 +7590,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="36" customHeight="1">
-      <c r="A20" s="35"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="12" t="s">
         <v>6</v>
       </c>
@@ -6612,7 +7599,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="36" customHeight="1">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="38" t="s">
         <v>258</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -6623,7 +7610,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="36" customHeight="1">
-      <c r="A22" s="35"/>
+      <c r="A22" s="38"/>
       <c r="B22" s="12" t="s">
         <v>260</v>
       </c>
@@ -6632,7 +7619,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="36" customHeight="1">
-      <c r="A23" s="35"/>
+      <c r="A23" s="38"/>
       <c r="B23" s="12" t="s">
         <v>262</v>
       </c>
@@ -6641,7 +7628,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1">
-      <c r="A24" s="35"/>
+      <c r="A24" s="38"/>
       <c r="B24" s="12" t="s">
         <v>264</v>
       </c>
@@ -6650,7 +7637,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="36" customHeight="1">
-      <c r="A25" s="35"/>
+      <c r="A25" s="38"/>
       <c r="B25" s="12" t="s">
         <v>266</v>
       </c>
@@ -6659,7 +7646,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="36" customHeight="1">
-      <c r="A26" s="35"/>
+      <c r="A26" s="38"/>
       <c r="B26" s="12" t="s">
         <v>268</v>
       </c>
@@ -6668,7 +7655,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="36" customHeight="1">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="40" t="s">
         <v>270</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -6679,7 +7666,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="36" customHeight="1">
-      <c r="A28" s="38"/>
+      <c r="A28" s="41"/>
       <c r="B28" s="12" t="s">
         <v>232</v>
       </c>
@@ -6688,7 +7675,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="36" customHeight="1">
-      <c r="A29" s="38"/>
+      <c r="A29" s="41"/>
       <c r="B29" s="12" t="s">
         <v>273</v>
       </c>
@@ -6697,7 +7684,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="36" customHeight="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="41"/>
       <c r="B30" s="12" t="s">
         <v>275</v>
       </c>
@@ -6706,7 +7693,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="36" customHeight="1">
-      <c r="A31" s="38"/>
+      <c r="A31" s="41"/>
       <c r="B31" s="12" t="s">
         <v>277</v>
       </c>
@@ -6715,7 +7702,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="36" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="12" t="s">
         <v>279</v>
       </c>
@@ -6724,7 +7711,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="36" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="38" t="s">
         <v>281</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -6735,7 +7722,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="36" customHeight="1">
-      <c r="A34" s="35"/>
+      <c r="A34" s="38"/>
       <c r="B34" s="12" t="s">
         <v>21</v>
       </c>
@@ -6744,7 +7731,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="36" customHeight="1">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="38" t="s">
         <v>284</v>
       </c>
       <c r="B35" s="12" t="s">
@@ -6755,7 +7742,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="36" customHeight="1">
-      <c r="A36" s="35"/>
+      <c r="A36" s="38"/>
       <c r="B36" s="12" t="s">
         <v>6</v>
       </c>
@@ -6764,7 +7751,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="36" customHeight="1">
-      <c r="A37" s="35"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="12" t="s">
         <v>287</v>
       </c>
@@ -6773,7 +7760,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="36" customHeight="1">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="38" t="s">
         <v>289</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -6784,7 +7771,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="36" customHeight="1">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="12" t="s">
         <v>35</v>
       </c>
@@ -6793,7 +7780,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="36" customHeight="1">
-      <c r="A40" s="35"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="12" t="s">
         <v>21</v>
       </c>
@@ -6802,7 +7789,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="36" customHeight="1">
-      <c r="A41" s="35"/>
+      <c r="A41" s="38"/>
       <c r="B41" s="12" t="s">
         <v>293</v>
       </c>
@@ -6811,7 +7798,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="36" customHeight="1">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="38" t="s">
         <v>295</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -6822,7 +7809,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="36" customHeight="1">
-      <c r="A43" s="35"/>
+      <c r="A43" s="38"/>
       <c r="B43" s="12" t="s">
         <v>21</v>
       </c>
@@ -6831,7 +7818,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="36" customHeight="1">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="38" t="s">
         <v>298</v>
       </c>
       <c r="B44" s="12" t="s">
@@ -6842,7 +7829,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="36" customHeight="1">
-      <c r="A45" s="35"/>
+      <c r="A45" s="38"/>
       <c r="B45" s="12" t="s">
         <v>35</v>
       </c>
@@ -6851,7 +7838,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="36" customHeight="1">
-      <c r="A46" s="35"/>
+      <c r="A46" s="38"/>
       <c r="B46" s="12" t="s">
         <v>301</v>
       </c>
@@ -6860,7 +7847,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="36" customHeight="1">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="38" t="s">
         <v>303</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -6871,7 +7858,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="36" customHeight="1">
-      <c r="A48" s="35"/>
+      <c r="A48" s="38"/>
       <c r="B48" s="12" t="s">
         <v>31</v>
       </c>
@@ -6880,7 +7867,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="36" customHeight="1">
-      <c r="A49" s="35" t="s">
+      <c r="A49" s="38" t="s">
         <v>306</v>
       </c>
       <c r="B49" s="12" t="s">
@@ -6891,7 +7878,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="36" customHeight="1">
-      <c r="A50" s="35"/>
+      <c r="A50" s="38"/>
       <c r="B50" s="12" t="s">
         <v>35</v>
       </c>
@@ -6900,7 +7887,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="36" customHeight="1">
-      <c r="A51" s="35"/>
+      <c r="A51" s="38"/>
       <c r="B51" s="12" t="s">
         <v>21</v>
       </c>
@@ -6909,7 +7896,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="36" customHeight="1">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="38" t="s">
         <v>310</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -6920,7 +7907,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="36" customHeight="1">
-      <c r="A53" s="35"/>
+      <c r="A53" s="38"/>
       <c r="B53" s="12" t="s">
         <v>312</v>
       </c>
@@ -6929,7 +7916,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="36" customHeight="1">
-      <c r="A54" s="35"/>
+      <c r="A54" s="38"/>
       <c r="B54" s="12" t="s">
         <v>35</v>
       </c>
@@ -6938,7 +7925,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="36" customHeight="1">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="38" t="s">
         <v>315</v>
       </c>
       <c r="B55" s="12" t="s">
@@ -6949,7 +7936,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="36" customHeight="1">
-      <c r="A56" s="35"/>
+      <c r="A56" s="38"/>
       <c r="B56" s="12" t="s">
         <v>21</v>
       </c>
@@ -6958,7 +7945,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="36" customHeight="1">
-      <c r="A57" s="35"/>
+      <c r="A57" s="38"/>
       <c r="B57" s="12" t="s">
         <v>318</v>
       </c>
@@ -6967,7 +7954,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" ht="36" customHeight="1">
-      <c r="A58" s="35"/>
+      <c r="A58" s="38"/>
       <c r="B58" s="12" t="s">
         <v>320</v>
       </c>
@@ -6976,7 +7963,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" ht="36" customHeight="1">
-      <c r="A59" s="35" t="s">
+      <c r="A59" s="38" t="s">
         <v>322</v>
       </c>
       <c r="B59" s="12" t="s">
@@ -6987,7 +7974,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="36" customHeight="1">
-      <c r="A60" s="35"/>
+      <c r="A60" s="38"/>
       <c r="B60" s="12" t="s">
         <v>6</v>
       </c>
@@ -6996,7 +7983,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" ht="36" customHeight="1">
-      <c r="A61" s="35"/>
+      <c r="A61" s="38"/>
       <c r="B61" s="12" t="s">
         <v>325</v>
       </c>
@@ -7005,7 +7992,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="36" customHeight="1">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="38" t="s">
         <v>327</v>
       </c>
       <c r="B62" s="12" t="s">
@@ -7016,7 +8003,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="36" customHeight="1">
-      <c r="A63" s="35"/>
+      <c r="A63" s="38"/>
       <c r="B63" s="12" t="s">
         <v>35</v>
       </c>
@@ -7025,7 +8012,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="36" customHeight="1">
-      <c r="A64" s="35"/>
+      <c r="A64" s="38"/>
       <c r="B64" s="12" t="s">
         <v>21</v>
       </c>
@@ -7034,7 +8021,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="36" customHeight="1">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="38" t="s">
         <v>331</v>
       </c>
       <c r="B65" s="12" t="s">
@@ -7045,7 +8032,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="36" customHeight="1">
-      <c r="A66" s="35"/>
+      <c r="A66" s="38"/>
       <c r="B66" s="12" t="s">
         <v>333</v>
       </c>
@@ -7054,7 +8041,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="36" customHeight="1">
-      <c r="A67" s="35"/>
+      <c r="A67" s="38"/>
       <c r="B67" s="12" t="s">
         <v>31</v>
       </c>
@@ -7063,7 +8050,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="36" customHeight="1">
-      <c r="A68" s="35"/>
+      <c r="A68" s="38"/>
       <c r="B68" s="12" t="s">
         <v>260</v>
       </c>
@@ -7072,7 +8059,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="36" customHeight="1">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="38" t="s">
         <v>337</v>
       </c>
       <c r="B69" s="12" t="s">
@@ -7083,7 +8070,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="36" customHeight="1">
-      <c r="A70" s="35"/>
+      <c r="A70" s="38"/>
       <c r="B70" s="12" t="s">
         <v>21</v>
       </c>
@@ -7092,7 +8079,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="36" customHeight="1">
-      <c r="A71" s="35"/>
+      <c r="A71" s="38"/>
       <c r="B71" s="12" t="s">
         <v>340</v>
       </c>
@@ -7101,7 +8088,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="36" customHeight="1">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="40" t="s">
         <v>342</v>
       </c>
       <c r="B72" s="12" t="s">
@@ -7112,7 +8099,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="36" customHeight="1">
-      <c r="A73" s="38"/>
+      <c r="A73" s="41"/>
       <c r="B73" s="12" t="s">
         <v>344</v>
       </c>
@@ -7121,7 +8108,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="36" customHeight="1">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="40" t="s">
         <v>346</v>
       </c>
       <c r="B74" s="12" t="s">
@@ -7132,7 +8119,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="36" customHeight="1">
-      <c r="A75" s="38"/>
+      <c r="A75" s="41"/>
       <c r="B75" s="12" t="s">
         <v>348</v>
       </c>
@@ -7141,7 +8128,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="36" customHeight="1">
-      <c r="A76" s="38"/>
+      <c r="A76" s="41"/>
       <c r="B76" s="12" t="s">
         <v>349</v>
       </c>
@@ -7150,7 +8137,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="36" customHeight="1">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="40" t="s">
         <v>351</v>
       </c>
       <c r="B77" s="12" t="s">
@@ -7161,7 +8148,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="36" customHeight="1">
-      <c r="A78" s="38"/>
+      <c r="A78" s="41"/>
       <c r="B78" s="12" t="s">
         <v>353</v>
       </c>
@@ -7170,7 +8157,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="36" customHeight="1">
-      <c r="A79" s="38"/>
+      <c r="A79" s="41"/>
       <c r="B79" s="12" t="s">
         <v>21</v>
       </c>
@@ -7179,7 +8166,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="36" customHeight="1">
-      <c r="A80" s="37" t="s">
+      <c r="A80" s="40" t="s">
         <v>356</v>
       </c>
       <c r="B80" s="12" t="s">
@@ -7190,7 +8177,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="36" customHeight="1">
-      <c r="A81" s="38"/>
+      <c r="A81" s="41"/>
       <c r="B81" s="12" t="s">
         <v>21</v>
       </c>
@@ -7199,7 +8186,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="36" customHeight="1">
-      <c r="A82" s="38"/>
+      <c r="A82" s="41"/>
       <c r="B82" s="12" t="s">
         <v>35</v>
       </c>
@@ -7208,7 +8195,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="36" customHeight="1">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="43" t="s">
         <v>360</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -7219,7 +8206,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="36" customHeight="1">
-      <c r="A84" s="40"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="12" t="s">
         <v>362</v>
       </c>
@@ -7228,7 +8215,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="36" customHeight="1">
-      <c r="A85" s="40"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="12" t="s">
         <v>21</v>
       </c>
@@ -7237,7 +8224,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="35" t="s">
+      <c r="A86" s="38" t="s">
         <v>365</v>
       </c>
       <c r="B86" s="12" t="s">
@@ -7248,7 +8235,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="36" customHeight="1">
-      <c r="A87" s="35"/>
+      <c r="A87" s="38"/>
       <c r="B87" s="12" t="s">
         <v>21</v>
       </c>
@@ -7257,7 +8244,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="36" customHeight="1">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="38" t="s">
         <v>368</v>
       </c>
       <c r="B88" s="12" t="s">
@@ -7268,7 +8255,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" ht="36" customHeight="1">
-      <c r="A89" s="35"/>
+      <c r="A89" s="38"/>
       <c r="B89" s="12" t="s">
         <v>21</v>
       </c>
@@ -7277,7 +8264,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="36" customHeight="1">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="38" t="s">
         <v>371</v>
       </c>
       <c r="B90" s="12" t="s">
@@ -7288,7 +8275,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="36" customHeight="1">
-      <c r="A91" s="35"/>
+      <c r="A91" s="38"/>
       <c r="B91" s="12" t="s">
         <v>373</v>
       </c>
@@ -7297,7 +8284,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="36" customHeight="1">
-      <c r="A92" s="35"/>
+      <c r="A92" s="38"/>
       <c r="B92" s="12" t="s">
         <v>21</v>
       </c>
@@ -7306,7 +8293,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="36" customHeight="1">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="38" t="s">
         <v>376</v>
       </c>
       <c r="B93" s="12" t="s">
@@ -7317,7 +8304,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="36" customHeight="1">
-      <c r="A94" s="35"/>
+      <c r="A94" s="38"/>
       <c r="B94" s="12" t="s">
         <v>6</v>
       </c>
@@ -7326,7 +8313,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="36" customHeight="1">
-      <c r="A95" s="35"/>
+      <c r="A95" s="38"/>
       <c r="B95" s="12" t="s">
         <v>379</v>
       </c>
